--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AE91818-5F1C-40E6-852A-79AF9AAE5429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9830B88B-3E3A-4EFF-B022-50788640EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F07E0FC-9149-4A9B-93D9-4BB3E8E3D814}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{273BDB8E-69CC-48DF-9AA6-5C99B45F1246}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="223">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -275,139 +275,127 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>12,43%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>87,57%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>9,45%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>90,55%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
@@ -416,61 +404,61 @@
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -482,91 +470,91 @@
     <t>93,94%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>5,64%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>3,95%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>96,05%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>94,89%</t>
   </si>
   <si>
-    <t>93,12%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
@@ -575,67 +563,61 @@
     <t>1,94%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -644,13 +626,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -659,22 +641,52 @@
     <t>1,46%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -683,19 +695,19 @@
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B396BE9E-EC2E-4286-832C-3BA39F0BB137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D12BF19-A773-4808-B217-A1516B253924}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2584,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16FBBA-2739-4A69-827F-7F3BFC2FA5C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDDAF72-5FC0-4ECD-A79F-96B3B6BDF23F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3010,10 +3022,10 @@
         <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3025,10 +3037,10 @@
         <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3068,13 @@
         <v>310479</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
@@ -3071,13 +3083,13 @@
         <v>310479</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3168,13 @@
         <v>47638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -3171,13 +3183,13 @@
         <v>47638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3217,13 @@
         <v>621406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -3220,13 +3232,13 @@
         <v>621406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3317,13 @@
         <v>23351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3320,13 +3332,13 @@
         <v>23351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3366,13 @@
         <v>195248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -3369,13 +3381,13 @@
         <v>195248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3466,13 @@
         <v>22397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3469,13 +3481,13 @@
         <v>22397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3515,13 @@
         <v>256743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3518,13 +3530,13 @@
         <v>256743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,10 +3618,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3621,10 +3633,10 @@
         <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,10 +3667,10 @@
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>604</v>
@@ -3670,10 +3682,10 @@
         <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3764,13 @@
         <v>50552</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3767,13 +3779,13 @@
         <v>50552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3813,13 @@
         <v>770002</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
@@ -3816,13 +3828,13 @@
         <v>770002</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3913,13 @@
         <v>233162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -3916,13 +3928,13 @@
         <v>233162</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3962,13 @@
         <v>3306654</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>3063</v>
@@ -3965,13 +3977,13 @@
         <v>3306654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E73A4B1-7930-4733-AC16-4E92D59FB17B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE41FD-54C8-4765-8CA6-9BEB04EF84BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4066,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4186,13 +4198,13 @@
         <v>5253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4201,13 +4213,13 @@
         <v>5253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4247,13 @@
         <v>283450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>271</v>
@@ -4250,13 +4262,13 @@
         <v>283450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4347,13 @@
         <v>27593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4350,13 +4362,13 @@
         <v>27593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4396,13 @@
         <v>495491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -4399,13 +4411,13 @@
         <v>495491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4496,13 @@
         <v>5546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4499,13 +4511,13 @@
         <v>5546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4545,13 @@
         <v>330763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -4548,13 +4560,13 @@
         <v>330763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4645,13 @@
         <v>14675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4648,13 +4660,13 @@
         <v>14675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4694,13 @@
         <v>372608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -4697,13 +4709,13 @@
         <v>372608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>12331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4797,13 +4809,13 @@
         <v>12331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4843,13 @@
         <v>206256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4846,13 +4858,13 @@
         <v>206256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4943,13 @@
         <v>6471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4946,13 +4958,13 @@
         <v>6471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4992,13 @@
         <v>266644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -4995,13 +5007,13 @@
         <v>266644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>38286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5095,13 +5107,13 @@
         <v>38286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5141,13 @@
         <v>653008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>609</v>
@@ -5144,13 +5156,13 @@
         <v>653008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5241,13 @@
         <v>42178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -5244,13 +5256,13 @@
         <v>42178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5290,13 @@
         <v>783989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -5293,13 +5305,13 @@
         <v>783989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5390,13 @@
         <v>152333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>154</v>
@@ -5393,13 +5405,13 @@
         <v>152333</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5439,13 @@
         <v>3392209</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>3184</v>
@@ -5442,13 +5454,13 @@
         <v>3392209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A8E031-269D-4BD0-85AD-5716118EDA83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446CEA3-6FDD-41A2-84DB-2A08D4AE3C0C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5543,7 +5555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5663,13 +5675,13 @@
         <v>5272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5678,13 +5690,13 @@
         <v>5272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5724,13 @@
         <v>266131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5727,13 +5739,13 @@
         <v>266131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5824,13 @@
         <v>6623</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5827,13 +5839,13 @@
         <v>6623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5873,13 @@
         <v>543275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -5876,13 +5888,13 @@
         <v>543275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5973,13 @@
         <v>5646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5976,13 +5988,13 @@
         <v>5646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +6022,13 @@
         <v>367638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>530</v>
@@ -6025,13 +6037,13 @@
         <v>367638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6122,13 @@
         <v>14105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -6125,13 +6137,13 @@
         <v>14105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6171,13 @@
         <v>413778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -6174,13 +6186,13 @@
         <v>413778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6271,13 @@
         <v>957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6274,13 +6286,13 @@
         <v>957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6320,13 @@
         <v>230946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
@@ -6323,13 +6335,13 @@
         <v>230946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6420,13 @@
         <v>4038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6423,13 +6435,13 @@
         <v>4038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,13 +6469,13 @@
         <v>271584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -6472,13 +6484,13 @@
         <v>271584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6569,13 @@
         <v>26922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -6572,13 +6584,13 @@
         <v>26922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6618,13 @@
         <v>777121</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>931</v>
@@ -6621,13 +6633,13 @@
         <v>777121</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6718,13 @@
         <v>4631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6721,13 +6733,13 @@
         <v>4631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6767,13 @@
         <v>860400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>1057</v>
@@ -6770,13 +6782,13 @@
         <v>860400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6867,13 @@
         <v>68194</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -6870,13 +6882,13 @@
         <v>68194</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6916,13 @@
         <v>3730873</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>5283</v>
@@ -6919,13 +6931,13 @@
         <v>3730873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9830B88B-3E3A-4EFF-B022-50788640EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65CFC8F-CA76-4AF3-8122-F9BBAF1BE417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{273BDB8E-69CC-48DF-9AA6-5C99B45F1246}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01CF5285-26EF-4AFA-B846-A24DB8420B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,283 +107,295 @@
     <t>6,57%</t>
   </si>
   <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,73%</t>
   </si>
   <si>
     <t>7,43%</t>
@@ -395,217 +407,229 @@
     <t>92,57%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>99,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
   </si>
   <si>
     <t>1,79%</t>
@@ -1119,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D12BF19-A773-4808-B217-A1516B253924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A12AD0C-3BE2-43ED-B83A-4443B3AFC143}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2596,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDDAF72-5FC0-4ECD-A79F-96B3B6BDF23F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C924AAB7-9C08-4170-90C4-AAFB5022C52A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3022,10 +3046,10 @@
         <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3037,10 +3061,10 @@
         <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3092,13 @@
         <v>310479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
@@ -3083,13 +3107,13 @@
         <v>310479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3192,13 @@
         <v>47638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -3183,13 +3207,13 @@
         <v>47638</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3241,13 @@
         <v>621406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>578</v>
@@ -3232,13 +3256,13 @@
         <v>621406</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3341,13 @@
         <v>23351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3332,13 +3356,13 @@
         <v>23351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3390,13 @@
         <v>195248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -3381,13 +3405,13 @@
         <v>195248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3490,13 @@
         <v>22397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3481,13 +3505,13 @@
         <v>22397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3539,13 @@
         <v>256743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3530,13 +3554,13 @@
         <v>256743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3639,13 @@
         <v>32027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3630,13 +3654,13 @@
         <v>32027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3688,13 @@
         <v>659729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>604</v>
@@ -3679,13 +3703,13 @@
         <v>659729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3788,13 @@
         <v>50552</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3779,13 +3803,13 @@
         <v>50552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3837,13 @@
         <v>770002</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
@@ -3828,13 +3852,13 @@
         <v>770002</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3937,13 @@
         <v>233162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -3928,13 +3952,13 @@
         <v>233162</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3986,13 @@
         <v>3306654</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>3063</v>
@@ -3977,13 +4001,13 @@
         <v>3306654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE41FD-54C8-4765-8CA6-9BEB04EF84BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F8A335-866A-4B3B-B5DF-E2F610397555}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4078,7 +4102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4198,13 +4222,13 @@
         <v>5253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4213,13 +4237,13 @@
         <v>5253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4271,13 @@
         <v>283450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>271</v>
@@ -4262,13 +4286,13 @@
         <v>283450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4371,13 @@
         <v>27593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4362,13 +4386,13 @@
         <v>27593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4420,13 @@
         <v>495491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -4411,13 +4435,13 @@
         <v>495491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4520,13 @@
         <v>5546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4511,13 +4535,13 @@
         <v>5546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4569,13 @@
         <v>330763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -4560,13 +4584,13 @@
         <v>330763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4669,13 @@
         <v>14675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4660,13 +4684,13 @@
         <v>14675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4718,13 @@
         <v>372608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -4709,13 +4733,13 @@
         <v>372608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4818,13 @@
         <v>12331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4809,13 +4833,13 @@
         <v>12331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4867,13 @@
         <v>206256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4858,13 +4882,13 @@
         <v>206256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4967,13 @@
         <v>6471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4958,13 +4982,13 @@
         <v>6471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5016,13 @@
         <v>266644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -5007,13 +5031,13 @@
         <v>266644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5116,13 @@
         <v>38286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5107,13 +5131,13 @@
         <v>38286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5165,13 @@
         <v>653008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>609</v>
@@ -5156,13 +5180,13 @@
         <v>653008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5265,13 @@
         <v>42178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -5256,13 +5280,13 @@
         <v>42178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5314,13 @@
         <v>783989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -5305,13 +5329,13 @@
         <v>783989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5414,13 @@
         <v>152333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>154</v>
@@ -5405,13 +5429,13 @@
         <v>152333</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5463,13 @@
         <v>3392209</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>3184</v>
@@ -5454,13 +5478,13 @@
         <v>3392209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8446CEA3-6FDD-41A2-84DB-2A08D4AE3C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D43025-26C6-4103-8E78-7CB7FD7164E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5555,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5675,13 +5699,13 @@
         <v>5272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5690,13 +5714,13 @@
         <v>5272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5748,13 @@
         <v>266131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5739,13 +5763,13 @@
         <v>266131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5848,13 @@
         <v>6623</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5839,13 +5863,13 @@
         <v>6623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5897,13 @@
         <v>543275</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -5888,13 +5912,13 @@
         <v>543275</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5997,13 @@
         <v>5646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5988,13 +6012,13 @@
         <v>5646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6046,13 @@
         <v>367638</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>530</v>
@@ -6037,13 +6061,13 @@
         <v>367638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6146,13 @@
         <v>14105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -6137,13 +6161,13 @@
         <v>14105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6195,13 @@
         <v>413778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -6186,13 +6210,13 @@
         <v>413778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6295,13 @@
         <v>957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6286,13 +6310,13 @@
         <v>957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6344,13 @@
         <v>230946</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
@@ -6335,13 +6359,13 @@
         <v>230946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6444,13 @@
         <v>4038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6435,13 +6459,13 @@
         <v>4038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6493,13 @@
         <v>271584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -6484,13 +6508,13 @@
         <v>271584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6593,13 @@
         <v>26922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -6584,13 +6608,13 @@
         <v>26922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6642,13 @@
         <v>777121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>931</v>
@@ -6633,13 +6657,13 @@
         <v>777121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6742,13 @@
         <v>4631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6733,13 +6757,13 @@
         <v>4631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6791,13 @@
         <v>860400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1057</v>
@@ -6782,13 +6806,13 @@
         <v>860400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,13 +6891,13 @@
         <v>68194</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -6882,13 +6906,13 @@
         <v>68194</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6940,13 @@
         <v>3730873</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M29" s="7">
         <v>5283</v>
@@ -6931,13 +6955,13 @@
         <v>3730873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65CFC8F-CA76-4AF3-8122-F9BBAF1BE417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F226A0-C687-4CDA-A945-EE6BCF162112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{01CF5285-26EF-4AFA-B846-A24DB8420B6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A57B730-C92E-4A75-83E0-BE98643A4973}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="219">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>8,0%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>6,57%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -128,19 +128,19 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -149,499 +149,493 @@
     <t>7,48%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>92,52%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
   </si>
   <si>
     <t>89,32%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>1,78%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>98,22%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -650,13 +644,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,4%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>98,6%</t>
+    <t>98,78%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -665,73 +659,43 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>99,46%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A12AD0C-3BE2-43ED-B83A-4443B3AFC143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CC46F-75EB-4A05-A68F-793EAC1D58F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C924AAB7-9C08-4170-90C4-AAFB5022C52A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DE690-4EC4-4E63-ACEC-23E0E715D062}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3341,13 +3305,13 @@
         <v>23351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3356,13 +3320,13 @@
         <v>23351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3354,13 @@
         <v>195248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -3405,13 +3369,13 @@
         <v>195248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3454,13 @@
         <v>22397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3505,13 +3469,13 @@
         <v>22397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3503,13 @@
         <v>256743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3554,13 +3518,13 @@
         <v>256743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3603,13 @@
         <v>32027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3654,13 +3618,13 @@
         <v>32027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3652,7 @@
         <v>659729</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>109</v>
@@ -3703,7 +3667,7 @@
         <v>659729</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>109</v>
@@ -4085,7 +4049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F8A335-866A-4B3B-B5DF-E2F610397555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF5A9B-E188-46C6-BA2A-0F97651AB2CF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5268,10 +5232,10 @@
         <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -5283,10 +5247,10 @@
         <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5278,13 @@
         <v>783989</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -5329,13 +5293,13 @@
         <v>783989</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5378,13 @@
         <v>152333</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M28" s="7">
         <v>154</v>
@@ -5429,13 +5393,13 @@
         <v>152333</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5427,13 @@
         <v>3392209</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>3184</v>
@@ -5478,13 +5442,13 @@
         <v>3392209</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D43025-26C6-4103-8E78-7CB7FD7164E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC4F58A-7E8E-4650-9EE2-0C9CE471126A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5579,7 +5543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5699,13 +5663,13 @@
         <v>5272</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5714,13 +5678,13 @@
         <v>5272</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5712,13 @@
         <v>266131</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
@@ -5763,13 +5727,13 @@
         <v>266131</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5812,13 @@
         <v>6623</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5863,13 +5827,13 @@
         <v>6623</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,13 +5861,13 @@
         <v>543275</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
@@ -5912,13 +5876,13 @@
         <v>543275</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5961,13 @@
         <v>5646</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -6012,13 +5976,13 @@
         <v>5646</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6010,13 @@
         <v>367638</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>530</v>
@@ -6061,13 +6025,13 @@
         <v>367638</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6110,13 @@
         <v>14105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -6161,13 +6125,13 @@
         <v>14105</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,13 +6159,13 @@
         <v>413778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
@@ -6210,13 +6174,13 @@
         <v>413778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6259,13 @@
         <v>957</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6310,13 +6274,13 @@
         <v>957</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6308,13 @@
         <v>230946</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
@@ -6359,13 +6323,13 @@
         <v>230946</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6408,13 @@
         <v>4038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -6459,13 +6423,13 @@
         <v>4038</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6457,13 @@
         <v>271584</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
@@ -6508,13 +6472,13 @@
         <v>271584</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6557,13 @@
         <v>26922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -6608,13 +6572,13 @@
         <v>26922</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6606,13 @@
         <v>777121</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>931</v>
@@ -6657,13 +6621,13 @@
         <v>777121</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6706,13 @@
         <v>4631</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6757,13 +6721,13 @@
         <v>4631</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6755,13 @@
         <v>860400</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>1057</v>
@@ -6806,13 +6770,13 @@
         <v>860400</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,13 +6855,13 @@
         <v>68194</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
@@ -6906,13 +6870,13 @@
         <v>68194</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6904,13 @@
         <v>3730873</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>5283</v>
@@ -6955,13 +6919,13 @@
         <v>3730873</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F226A0-C687-4CDA-A945-EE6BCF162112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A559C8-73C9-4A2B-BC3C-84527AE287B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A57B730-C92E-4A75-83E0-BE98643A4973}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4B8CD1D6-586A-47FD-9F92-9286857EFF10}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="235">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -272,6 +272,24 @@
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
   </si>
   <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
     <t>5,13%</t>
   </si>
   <si>
@@ -308,22 +326,22 @@
     <t>93,85%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>10,68%</t>
@@ -572,22 +590,22 @@
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -596,13 +614,13 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,68%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,32%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>99,5%</t>
@@ -626,76 +644,106 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>99,58%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06CC46F-75EB-4A05-A68F-793EAC1D58F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DBF957-E985-4216-829D-DDE832E27791}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2482,7 +2530,7 @@
         <v>3086</v>
       </c>
       <c r="I29" s="7">
-        <v>3162565</v>
+        <v>3162564</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>72</v>
@@ -2497,7 +2545,7 @@
         <v>3086</v>
       </c>
       <c r="N29" s="7">
-        <v>3162565</v>
+        <v>3162564</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>72</v>
@@ -2531,7 +2579,7 @@
         <v>3294</v>
       </c>
       <c r="I30" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2546,7 +2594,7 @@
         <v>3294</v>
       </c>
       <c r="N30" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2584,7 +2632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DE690-4EC4-4E63-ACEC-23E0E715D062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE4C07-F804-483B-84D8-91581CD0AAF4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,30 +2763,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>24464</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24464</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,30 +2812,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="I5" s="7">
+        <v>256605</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="N5" s="7">
+        <v>256605</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,30 +2861,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281069</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="N6" s="7">
+        <v>281069</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2918,13 @@
         <v>26656</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -2873,13 +2933,13 @@
         <v>26656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2967,13 @@
         <v>493048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="7">
         <v>452</v>
@@ -2922,13 +2982,13 @@
         <v>493048</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3067,13 @@
         <v>30541</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3022,13 +3082,13 @@
         <v>30541</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3116,13 @@
         <v>310479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>288</v>
@@ -3071,13 +3131,13 @@
         <v>310479</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,34 +3210,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>47638</v>
+        <v>23174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>47638</v>
+        <v>23174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,34 +3259,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>578</v>
+        <v>348</v>
       </c>
       <c r="I14" s="7">
-        <v>621406</v>
+        <v>364800</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
-        <v>578</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>621406</v>
+        <v>364800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,10 +3308,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669044</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3263,10 +3323,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="N15" s="7">
-        <v>669044</v>
+        <v>387974</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3305,13 +3365,13 @@
         <v>23351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3320,13 +3380,13 @@
         <v>23351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3414,13 @@
         <v>195248</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -3369,13 +3429,13 @@
         <v>195248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3514,13 @@
         <v>22397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3469,13 +3529,13 @@
         <v>22397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3563,13 @@
         <v>256743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3518,13 +3578,13 @@
         <v>256743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,10 +3666,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>30</v>
@@ -3621,10 +3681,10 @@
         <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,31 +3709,31 @@
         <v>604</v>
       </c>
       <c r="I23" s="7">
-        <v>659729</v>
+        <v>659728</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>604</v>
       </c>
       <c r="N23" s="7">
-        <v>659729</v>
+        <v>659728</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3758,7 @@
         <v>634</v>
       </c>
       <c r="I24" s="7">
-        <v>691756</v>
+        <v>691755</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -3713,7 +3773,7 @@
         <v>634</v>
       </c>
       <c r="N24" s="7">
-        <v>691756</v>
+        <v>691755</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3752,13 +3812,13 @@
         <v>50552</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -3767,13 +3827,13 @@
         <v>50552</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3861,13 @@
         <v>770002</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>708</v>
@@ -3816,13 +3876,13 @@
         <v>770002</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3961,13 @@
         <v>233162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -3916,13 +3976,13 @@
         <v>233162</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +4010,13 @@
         <v>3306654</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>3063</v>
@@ -3965,13 +4025,13 @@
         <v>3306654</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,7 +4109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FF5A9B-E188-46C6-BA2A-0F97651AB2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71AFDEF-5419-40E2-AA9E-470619A604F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4066,7 +4126,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4186,13 +4246,13 @@
         <v>5253</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4201,13 +4261,13 @@
         <v>5253</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4295,13 @@
         <v>283450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>271</v>
@@ -4250,13 +4310,13 @@
         <v>283450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4395,13 @@
         <v>27593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -4350,13 +4410,13 @@
         <v>27593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4444,13 @@
         <v>495491</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>456</v>
@@ -4399,13 +4459,13 @@
         <v>495491</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4544,13 @@
         <v>5546</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4499,13 +4559,13 @@
         <v>5546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4593,13 @@
         <v>330763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -4548,13 +4608,13 @@
         <v>330763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4693,13 @@
         <v>14675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4648,13 +4708,13 @@
         <v>14675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4742,13 @@
         <v>372608</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -4697,13 +4757,13 @@
         <v>372608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4842,13 @@
         <v>12331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4797,13 +4857,13 @@
         <v>12331</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4891,13 @@
         <v>206256</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>209</v>
@@ -4846,13 +4906,13 @@
         <v>206256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4991,13 @@
         <v>6471</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -4946,13 +5006,13 @@
         <v>6471</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +5040,13 @@
         <v>266644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>256</v>
@@ -4995,13 +5055,13 @@
         <v>266644</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5140,13 @@
         <v>38286</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5095,13 +5155,13 @@
         <v>38286</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5189,13 @@
         <v>653008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>609</v>
@@ -5144,13 +5204,13 @@
         <v>653008</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5289,13 @@
         <v>42178</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -5244,13 +5304,13 @@
         <v>42178</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5338,13 @@
         <v>783989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>714</v>
@@ -5293,13 +5353,13 @@
         <v>783989</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5438,13 @@
         <v>152333</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>154</v>
@@ -5393,13 +5453,13 @@
         <v>152333</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5487,13 @@
         <v>3392209</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>3184</v>
@@ -5442,13 +5502,13 @@
         <v>3392209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC4F58A-7E8E-4650-9EE2-0C9CE471126A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23CFF9C-772C-447E-BF52-C7F1D7F06A35}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5543,7 +5603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5660,31 +5720,31 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>5272</v>
+        <v>5968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>5272</v>
+        <v>5968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,31 +5769,31 @@
         <v>531</v>
       </c>
       <c r="I5" s="7">
-        <v>266131</v>
+        <v>283667</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>531</v>
       </c>
       <c r="N5" s="7">
-        <v>266131</v>
+        <v>283667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,7 +5818,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5773,7 +5833,7 @@
         <v>538</v>
       </c>
       <c r="N6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5809,31 +5869,31 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>6623</v>
+        <v>6137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6623</v>
+        <v>6137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,31 +5918,31 @@
         <v>705</v>
       </c>
       <c r="I8" s="7">
-        <v>543275</v>
+        <v>504541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>705</v>
       </c>
       <c r="N8" s="7">
-        <v>543275</v>
+        <v>504541</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5967,7 @@
         <v>712</v>
       </c>
       <c r="I9" s="7">
-        <v>549898</v>
+        <v>510678</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5922,7 +5982,7 @@
         <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>549898</v>
+        <v>510678</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5958,31 +6018,31 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5646</v>
+        <v>5274</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>5646</v>
+        <v>5274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,31 +6067,31 @@
         <v>530</v>
       </c>
       <c r="I11" s="7">
-        <v>367638</v>
+        <v>343854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>530</v>
       </c>
       <c r="N11" s="7">
-        <v>367638</v>
+        <v>343854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6116,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6071,7 +6131,7 @@
         <v>536</v>
       </c>
       <c r="N12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6107,31 +6167,31 @@
         <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>14105</v>
+        <v>13066</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>14105</v>
+        <v>13066</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,31 +6216,31 @@
         <v>584</v>
       </c>
       <c r="I14" s="7">
-        <v>413778</v>
+        <v>462024</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>584</v>
       </c>
       <c r="N14" s="7">
-        <v>413778</v>
+        <v>462024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,7 +6265,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6220,7 +6280,7 @@
         <v>598</v>
       </c>
       <c r="N15" s="7">
-        <v>427883</v>
+        <v>475090</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6256,31 +6316,31 @@
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>957</v>
+        <v>880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>957</v>
+        <v>880</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,31 +6365,31 @@
         <v>490</v>
       </c>
       <c r="I17" s="7">
-        <v>230946</v>
+        <v>207776</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
       </c>
       <c r="N17" s="7">
-        <v>230946</v>
+        <v>207776</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6414,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6369,7 +6429,7 @@
         <v>492</v>
       </c>
       <c r="N18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6405,31 +6465,31 @@
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>4038</v>
+        <v>3768</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>4038</v>
+        <v>3768</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,31 +6514,31 @@
         <v>455</v>
       </c>
       <c r="I20" s="7">
-        <v>271584</v>
+        <v>253288</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>455</v>
       </c>
       <c r="N20" s="7">
-        <v>271584</v>
+        <v>253288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,7 +6563,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6518,7 +6578,7 @@
         <v>460</v>
       </c>
       <c r="N21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6554,31 +6614,31 @@
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>26922</v>
+        <v>25062</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>26922</v>
+        <v>25062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,31 +6663,31 @@
         <v>931</v>
       </c>
       <c r="I23" s="7">
-        <v>777121</v>
+        <v>824040</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M23" s="7">
         <v>931</v>
       </c>
       <c r="N23" s="7">
-        <v>777121</v>
+        <v>824040</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6712,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>804043</v>
+        <v>849102</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6667,7 +6727,7 @@
         <v>959</v>
       </c>
       <c r="N24" s="7">
-        <v>804043</v>
+        <v>849102</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6703,31 +6763,31 @@
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>4631</v>
+        <v>3508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>4631</v>
+        <v>3508</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,31 +6812,31 @@
         <v>1057</v>
       </c>
       <c r="I26" s="7">
-        <v>860400</v>
+        <v>711343</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="M26" s="7">
         <v>1057</v>
       </c>
       <c r="N26" s="7">
-        <v>860400</v>
+        <v>711343</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6801,7 +6861,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -6816,7 +6876,7 @@
         <v>1060</v>
       </c>
       <c r="N27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -6852,31 +6912,31 @@
         <v>72</v>
       </c>
       <c r="I28" s="7">
-        <v>68194</v>
+        <v>63664</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="M28" s="7">
         <v>72</v>
       </c>
       <c r="N28" s="7">
-        <v>68194</v>
+        <v>63664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,31 +6961,31 @@
         <v>5283</v>
       </c>
       <c r="I29" s="7">
-        <v>3730873</v>
+        <v>3590531</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>5283</v>
       </c>
       <c r="N29" s="7">
-        <v>3730873</v>
+        <v>3590531</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +7010,7 @@
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3799067</v>
+        <v>3654195</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -6965,7 +7025,7 @@
         <v>5355</v>
       </c>
       <c r="N30" s="7">
-        <v>3799067</v>
+        <v>3654195</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
